--- a/data/processed/buddingtonite_ANU/kraw_summaries.xlsx
+++ b/data/processed/buddingtonite_ANU/kraw_summaries.xlsx
@@ -503,22 +503,22 @@
         <v>25.18</v>
       </c>
       <c r="H2">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="I2">
         <v>25.18</v>
       </c>
       <c r="J2">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="K2">
-        <v>24.46</v>
+        <v>27.62</v>
       </c>
       <c r="L2">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="M2">
-        <v>24.46</v>
+        <v>27.62</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -556,13 +556,13 @@
         <v>1.4</v>
       </c>
       <c r="K3">
-        <v>13.75</v>
+        <v>13.25</v>
       </c>
       <c r="L3">
         <v>1.4</v>
       </c>
       <c r="M3">
-        <v>13.75</v>
+        <v>13.25</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -591,22 +591,22 @@
         <v>18.87</v>
       </c>
       <c r="H4">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="I4">
         <v>18.87</v>
       </c>
       <c r="J4">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K4">
-        <v>18.39</v>
+        <v>16.87</v>
       </c>
       <c r="L4">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="M4">
-        <v>18.39</v>
+        <v>16.87</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -635,22 +635,22 @@
         <v>16.83</v>
       </c>
       <c r="H5">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="I5">
         <v>16.83</v>
       </c>
       <c r="J5">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="K5">
-        <v>16.93</v>
+        <v>17.55</v>
       </c>
       <c r="L5">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M5">
-        <v>16.93</v>
+        <v>17.55</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -679,22 +679,22 @@
         <v>22</v>
       </c>
       <c r="H6">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="I6">
         <v>22</v>
       </c>
       <c r="J6">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K6">
-        <v>25.1</v>
+        <v>23.22</v>
       </c>
       <c r="L6">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M6">
-        <v>25.1</v>
+        <v>23.22</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -777,22 +777,22 @@
         <v>0.25</v>
       </c>
       <c r="H2">
-        <v>124</v>
+        <v>124.05</v>
       </c>
       <c r="I2">
         <v>0.25</v>
       </c>
       <c r="J2">
-        <v>124</v>
+        <v>124.05</v>
       </c>
       <c r="K2">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="L2">
-        <v>124</v>
+        <v>124.05</v>
       </c>
       <c r="M2">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -821,19 +821,19 @@
         <v>0.25</v>
       </c>
       <c r="H3">
-        <v>122.8</v>
+        <v>122.78</v>
       </c>
       <c r="I3">
         <v>0.25</v>
       </c>
       <c r="J3">
-        <v>122.8</v>
+        <v>122.78</v>
       </c>
       <c r="K3">
         <v>0.25</v>
       </c>
       <c r="L3">
-        <v>122.8</v>
+        <v>122.78</v>
       </c>
       <c r="M3">
         <v>0.25</v>
@@ -865,19 +865,19 @@
         <v>0.25</v>
       </c>
       <c r="H4">
-        <v>121.79</v>
+        <v>121.77</v>
       </c>
       <c r="I4">
         <v>0.25</v>
       </c>
       <c r="J4">
-        <v>121.79</v>
+        <v>121.77</v>
       </c>
       <c r="K4">
         <v>0.24</v>
       </c>
       <c r="L4">
-        <v>121.79</v>
+        <v>121.77</v>
       </c>
       <c r="M4">
         <v>0.24</v>
@@ -953,19 +953,19 @@
         <v>0.25</v>
       </c>
       <c r="H6">
-        <v>123.04</v>
+        <v>123.11</v>
       </c>
       <c r="I6">
         <v>0.25</v>
       </c>
       <c r="J6">
-        <v>123.04</v>
+        <v>123.11</v>
       </c>
       <c r="K6">
         <v>0.25</v>
       </c>
       <c r="L6">
-        <v>123.04</v>
+        <v>123.11</v>
       </c>
       <c r="M6">
         <v>0.25</v>
@@ -1051,22 +1051,22 @@
         <v>0.43</v>
       </c>
       <c r="H2">
-        <v>99.86</v>
+        <v>99.83</v>
       </c>
       <c r="I2">
         <v>0.43</v>
       </c>
       <c r="J2">
-        <v>99.86</v>
+        <v>99.83</v>
       </c>
       <c r="K2">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="L2">
-        <v>99.86</v>
+        <v>99.83</v>
       </c>
       <c r="M2">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1095,19 +1095,19 @@
         <v>0.43</v>
       </c>
       <c r="H3">
-        <v>100.83</v>
+        <v>100.86</v>
       </c>
       <c r="I3">
         <v>0.43</v>
       </c>
       <c r="J3">
-        <v>100.83</v>
+        <v>100.86</v>
       </c>
       <c r="K3">
         <v>0.44</v>
       </c>
       <c r="L3">
-        <v>100.83</v>
+        <v>100.86</v>
       </c>
       <c r="M3">
         <v>0.44</v>
@@ -1139,22 +1139,22 @@
         <v>0.43</v>
       </c>
       <c r="H4">
-        <v>100.77</v>
+        <v>100.8</v>
       </c>
       <c r="I4">
         <v>0.43</v>
       </c>
       <c r="J4">
-        <v>100.77</v>
+        <v>100.8</v>
       </c>
       <c r="K4">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="L4">
-        <v>100.77</v>
+        <v>100.8</v>
       </c>
       <c r="M4">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -1183,22 +1183,22 @@
         <v>0.43</v>
       </c>
       <c r="H5">
-        <v>101</v>
+        <v>101.01</v>
       </c>
       <c r="I5">
         <v>0.43</v>
       </c>
       <c r="J5">
-        <v>101</v>
+        <v>101.01</v>
       </c>
       <c r="K5">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="L5">
-        <v>101</v>
+        <v>101.01</v>
       </c>
       <c r="M5">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -1227,22 +1227,22 @@
         <v>0.43</v>
       </c>
       <c r="H6">
-        <v>99.81999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="I6">
         <v>0.43</v>
       </c>
       <c r="J6">
-        <v>99.81999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="K6">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="L6">
-        <v>99.81999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="M6">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -1334,13 +1334,13 @@
         <v>0.04</v>
       </c>
       <c r="K2">
-        <v>87.22</v>
+        <v>85.2</v>
       </c>
       <c r="L2">
         <v>0.04</v>
       </c>
       <c r="M2">
-        <v>87.22</v>
+        <v>85.2</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1378,13 +1378,13 @@
         <v>0.02</v>
       </c>
       <c r="K3">
-        <v>165.42</v>
+        <v>161.86</v>
       </c>
       <c r="L3">
         <v>0.02</v>
       </c>
       <c r="M3">
-        <v>165.42</v>
+        <v>161.86</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -1422,13 +1422,13 @@
         <v>0.03</v>
       </c>
       <c r="K4">
-        <v>142.61</v>
+        <v>105.94</v>
       </c>
       <c r="L4">
         <v>0.03</v>
       </c>
       <c r="M4">
-        <v>142.61</v>
+        <v>105.94</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -1457,22 +1457,22 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="K5">
-        <v>160.65</v>
+        <v>140.77</v>
       </c>
       <c r="L5">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="M5">
-        <v>160.65</v>
+        <v>140.77</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -1501,22 +1501,22 @@
         <v>390.14</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I6">
         <v>390.14</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K6">
-        <v>896.92</v>
+        <v>269.69</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M6">
-        <v>896.92</v>
+        <v>269.69</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -1599,22 +1599,22 @@
         <v>31.54</v>
       </c>
       <c r="H2">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I2">
         <v>31.54</v>
       </c>
       <c r="J2">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="K2">
-        <v>30.23</v>
+        <v>32.29</v>
       </c>
       <c r="L2">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="M2">
-        <v>30.23</v>
+        <v>32.29</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1643,22 +1643,22 @@
         <v>23.53</v>
       </c>
       <c r="H3">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="I3">
         <v>23.53</v>
       </c>
       <c r="J3">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="K3">
-        <v>22.44</v>
+        <v>24.34</v>
       </c>
       <c r="L3">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="M3">
-        <v>22.44</v>
+        <v>24.34</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -1687,22 +1687,22 @@
         <v>71.93000000000001</v>
       </c>
       <c r="H4">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I4">
         <v>71.93000000000001</v>
       </c>
       <c r="J4">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
-        <v>80.34999999999999</v>
+        <v>63.82</v>
       </c>
       <c r="L4">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="M4">
-        <v>80.34999999999999</v>
+        <v>63.82</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -1731,22 +1731,22 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I5">
         <v>28</v>
       </c>
       <c r="J5">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K5">
-        <v>29.15</v>
+        <v>26.72</v>
       </c>
       <c r="L5">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="M5">
-        <v>29.15</v>
+        <v>26.72</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -1775,22 +1775,22 @@
         <v>29.89</v>
       </c>
       <c r="H6">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I6">
         <v>29.89</v>
       </c>
       <c r="J6">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
-        <v>28.5</v>
+        <v>30.27</v>
       </c>
       <c r="L6">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="M6">
-        <v>28.5</v>
+        <v>30.27</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -1882,13 +1882,13 @@
         <v>0.14</v>
       </c>
       <c r="K2">
-        <v>34.17</v>
+        <v>29.27</v>
       </c>
       <c r="L2">
         <v>0.14</v>
       </c>
       <c r="M2">
-        <v>34.17</v>
+        <v>29.27</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1926,13 +1926,13 @@
         <v>0.06</v>
       </c>
       <c r="K3">
-        <v>75.16</v>
+        <v>77.34</v>
       </c>
       <c r="L3">
         <v>0.06</v>
       </c>
       <c r="M3">
-        <v>75.16</v>
+        <v>77.34</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -1970,13 +1970,13 @@
         <v>0.09</v>
       </c>
       <c r="K4">
-        <v>43.24</v>
+        <v>46.75</v>
       </c>
       <c r="L4">
         <v>0.09</v>
       </c>
       <c r="M4">
-        <v>43.24</v>
+        <v>46.75</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2005,22 +2005,22 @@
         <v>229.8</v>
       </c>
       <c r="H5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I5">
         <v>229.8</v>
       </c>
       <c r="J5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K5">
-        <v>304.96</v>
+        <v>252.55</v>
       </c>
       <c r="L5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M5">
-        <v>304.96</v>
+        <v>252.55</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2049,22 +2049,22 @@
         <v>114.21</v>
       </c>
       <c r="H6">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I6">
         <v>114.21</v>
       </c>
       <c r="J6">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>166.24</v>
+        <v>117.93</v>
       </c>
       <c r="L6">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M6">
-        <v>166.24</v>
+        <v>117.93</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -2147,22 +2147,22 @@
         <v>64.37</v>
       </c>
       <c r="H2">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="I2">
         <v>64.37</v>
       </c>
       <c r="J2">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="K2">
-        <v>119.36</v>
+        <v>117.97</v>
       </c>
       <c r="L2">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="M2">
-        <v>119.36</v>
+        <v>117.97</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -2191,22 +2191,22 @@
         <v>100.01</v>
       </c>
       <c r="H3">
-        <v>-0.67</v>
+        <v>-1.25</v>
       </c>
       <c r="I3">
         <v>100.01</v>
       </c>
       <c r="J3">
-        <v>-0.67</v>
+        <v>-1.25</v>
       </c>
       <c r="K3">
-        <v>322.45</v>
+        <v>183.91</v>
       </c>
       <c r="L3">
-        <v>-0.67</v>
+        <v>-1.25</v>
       </c>
       <c r="M3">
-        <v>322.45</v>
+        <v>183.91</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -2235,22 +2235,22 @@
         <v>46.75</v>
       </c>
       <c r="H4">
-        <v>2.77</v>
+        <v>2.68</v>
       </c>
       <c r="I4">
         <v>46.75</v>
       </c>
       <c r="J4">
-        <v>2.77</v>
+        <v>2.68</v>
       </c>
       <c r="K4">
-        <v>79.52</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="L4">
-        <v>2.77</v>
+        <v>2.68</v>
       </c>
       <c r="M4">
-        <v>79.52</v>
+        <v>74.76000000000001</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2279,22 +2279,22 @@
         <v>35.44</v>
       </c>
       <c r="H5">
-        <v>3.69</v>
+        <v>3.58</v>
       </c>
       <c r="I5">
         <v>35.44</v>
       </c>
       <c r="J5">
-        <v>3.69</v>
+        <v>3.58</v>
       </c>
       <c r="K5">
-        <v>55.39</v>
+        <v>55.71</v>
       </c>
       <c r="L5">
-        <v>3.69</v>
+        <v>3.58</v>
       </c>
       <c r="M5">
-        <v>55.39</v>
+        <v>55.71</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2323,22 +2323,22 @@
         <v>62.1</v>
       </c>
       <c r="H6">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="I6">
         <v>62.1</v>
       </c>
       <c r="J6">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="K6">
-        <v>118.9</v>
+        <v>106.1</v>
       </c>
       <c r="L6">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="M6">
-        <v>118.9</v>
+        <v>106.1</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -2430,13 +2430,13 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>101.61</v>
+        <v>113.96</v>
       </c>
       <c r="L2">
         <v>0.01</v>
       </c>
       <c r="M2">
-        <v>101.61</v>
+        <v>113.96</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -2474,13 +2474,13 @@
         <v>-0.01</v>
       </c>
       <c r="K3">
-        <v>75.69</v>
+        <v>61.9</v>
       </c>
       <c r="L3">
         <v>-0.01</v>
       </c>
       <c r="M3">
-        <v>75.69</v>
+        <v>61.9</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -2518,13 +2518,13 @@
         <v>-0.01</v>
       </c>
       <c r="K4">
-        <v>81.65000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="L4">
         <v>-0.01</v>
       </c>
       <c r="M4">
-        <v>81.65000000000001</v>
+        <v>64.2</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2562,13 +2562,13 @@
         <v>-0.01</v>
       </c>
       <c r="K5">
-        <v>105.72</v>
+        <v>139.37</v>
       </c>
       <c r="L5">
         <v>-0.01</v>
       </c>
       <c r="M5">
-        <v>105.72</v>
+        <v>139.37</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2606,13 +2606,13 @@
         <v>-0.01</v>
       </c>
       <c r="K6">
-        <v>167.01</v>
+        <v>137.15</v>
       </c>
       <c r="L6">
         <v>-0.01</v>
       </c>
       <c r="M6">
-        <v>167.01</v>
+        <v>137.15</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -2695,22 +2695,22 @@
         <v>3.43</v>
       </c>
       <c r="H2">
-        <v>32.62</v>
+        <v>32.5</v>
       </c>
       <c r="I2">
         <v>3.78</v>
       </c>
       <c r="J2">
-        <v>26.71</v>
+        <v>26.62</v>
       </c>
       <c r="K2">
-        <v>3.29</v>
+        <v>3.61</v>
       </c>
       <c r="L2">
-        <v>32.62</v>
+        <v>32.5</v>
       </c>
       <c r="M2">
-        <v>3.65</v>
+        <v>3.94</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -2739,22 +2739,22 @@
         <v>3.35</v>
       </c>
       <c r="H3">
-        <v>33.91</v>
+        <v>33.85</v>
       </c>
       <c r="I3">
         <v>3.71</v>
       </c>
       <c r="J3">
-        <v>27.77</v>
+        <v>27.72</v>
       </c>
       <c r="K3">
-        <v>3.21</v>
+        <v>3.18</v>
       </c>
       <c r="L3">
-        <v>33.91</v>
+        <v>33.85</v>
       </c>
       <c r="M3">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -2783,22 +2783,22 @@
         <v>3.52</v>
       </c>
       <c r="H4">
-        <v>31.46</v>
+        <v>31.37</v>
       </c>
       <c r="I4">
         <v>3.86</v>
       </c>
       <c r="J4">
-        <v>25.77</v>
+        <v>25.69</v>
       </c>
       <c r="K4">
-        <v>3.59</v>
+        <v>3.42</v>
       </c>
       <c r="L4">
-        <v>31.46</v>
+        <v>31.37</v>
       </c>
       <c r="M4">
-        <v>3.92</v>
+        <v>3.77</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2827,22 +2827,22 @@
         <v>3.59</v>
       </c>
       <c r="H5">
-        <v>30.39</v>
+        <v>30.47</v>
       </c>
       <c r="I5">
         <v>3.92</v>
       </c>
       <c r="J5">
-        <v>24.89</v>
+        <v>24.95</v>
       </c>
       <c r="K5">
-        <v>3.44</v>
+        <v>3.68</v>
       </c>
       <c r="L5">
-        <v>30.39</v>
+        <v>30.47</v>
       </c>
       <c r="M5">
-        <v>3.79</v>
+        <v>4.01</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2871,22 +2871,22 @@
         <v>3.54</v>
       </c>
       <c r="H6">
-        <v>30.9</v>
+        <v>30.71</v>
       </c>
       <c r="I6">
         <v>3.88</v>
       </c>
       <c r="J6">
-        <v>25.31</v>
+        <v>25.15</v>
       </c>
       <c r="K6">
-        <v>3.14</v>
+        <v>3.45</v>
       </c>
       <c r="L6">
-        <v>30.9</v>
+        <v>30.71</v>
       </c>
       <c r="M6">
-        <v>3.52</v>
+        <v>3.8</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>

--- a/data/processed/buddingtonite_ANU/kraw_summaries.xlsx
+++ b/data/processed/buddingtonite_ANU/kraw_summaries.xlsx
@@ -503,22 +503,22 @@
         <v>25.18</v>
       </c>
       <c r="H2">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="I2">
         <v>25.18</v>
       </c>
       <c r="J2">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="K2">
-        <v>27.62</v>
+        <v>24.1</v>
       </c>
       <c r="L2">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="M2">
-        <v>27.62</v>
+        <v>24.1</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -547,22 +547,22 @@
         <v>13.83</v>
       </c>
       <c r="H3">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="I3">
         <v>13.83</v>
       </c>
       <c r="J3">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="K3">
-        <v>13.25</v>
+        <v>15.7</v>
       </c>
       <c r="L3">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M3">
-        <v>13.25</v>
+        <v>15.7</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -591,22 +591,22 @@
         <v>18.87</v>
       </c>
       <c r="H4">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="I4">
         <v>18.87</v>
       </c>
       <c r="J4">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K4">
-        <v>16.87</v>
+        <v>18.88</v>
       </c>
       <c r="L4">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="M4">
-        <v>16.87</v>
+        <v>18.88</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -635,22 +635,22 @@
         <v>16.83</v>
       </c>
       <c r="H5">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="I5">
         <v>16.83</v>
       </c>
       <c r="J5">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="K5">
-        <v>17.55</v>
+        <v>14.81</v>
       </c>
       <c r="L5">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M5">
-        <v>17.55</v>
+        <v>14.81</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -679,22 +679,22 @@
         <v>22</v>
       </c>
       <c r="H6">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="I6">
         <v>22</v>
       </c>
       <c r="J6">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="K6">
-        <v>23.22</v>
+        <v>23.77</v>
       </c>
       <c r="L6">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="M6">
-        <v>23.22</v>
+        <v>23.77</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -777,22 +777,22 @@
         <v>0.25</v>
       </c>
       <c r="H2">
-        <v>124.05</v>
+        <v>124</v>
       </c>
       <c r="I2">
         <v>0.25</v>
       </c>
       <c r="J2">
-        <v>124.05</v>
+        <v>124</v>
       </c>
       <c r="K2">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="L2">
-        <v>124.05</v>
+        <v>124</v>
       </c>
       <c r="M2">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -821,22 +821,22 @@
         <v>0.25</v>
       </c>
       <c r="H3">
-        <v>122.78</v>
+        <v>122.8</v>
       </c>
       <c r="I3">
         <v>0.25</v>
       </c>
       <c r="J3">
-        <v>122.78</v>
+        <v>122.8</v>
       </c>
       <c r="K3">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L3">
-        <v>122.78</v>
+        <v>122.8</v>
       </c>
       <c r="M3">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -865,22 +865,22 @@
         <v>0.25</v>
       </c>
       <c r="H4">
-        <v>121.77</v>
+        <v>121.75</v>
       </c>
       <c r="I4">
         <v>0.25</v>
       </c>
       <c r="J4">
-        <v>121.77</v>
+        <v>121.75</v>
       </c>
       <c r="K4">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="L4">
-        <v>121.77</v>
+        <v>121.75</v>
       </c>
       <c r="M4">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -909,19 +909,19 @@
         <v>0.25</v>
       </c>
       <c r="H5">
-        <v>122.24</v>
+        <v>122.21</v>
       </c>
       <c r="I5">
         <v>0.25</v>
       </c>
       <c r="J5">
-        <v>122.24</v>
+        <v>122.21</v>
       </c>
       <c r="K5">
         <v>0.25</v>
       </c>
       <c r="L5">
-        <v>122.24</v>
+        <v>122.21</v>
       </c>
       <c r="M5">
         <v>0.25</v>
@@ -953,22 +953,22 @@
         <v>0.25</v>
       </c>
       <c r="H6">
-        <v>123.11</v>
+        <v>123.1</v>
       </c>
       <c r="I6">
         <v>0.25</v>
       </c>
       <c r="J6">
-        <v>123.11</v>
+        <v>123.1</v>
       </c>
       <c r="K6">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="L6">
-        <v>123.11</v>
+        <v>123.1</v>
       </c>
       <c r="M6">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -1051,19 +1051,19 @@
         <v>0.43</v>
       </c>
       <c r="H2">
-        <v>99.83</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="I2">
         <v>0.43</v>
       </c>
       <c r="J2">
-        <v>99.83</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="K2">
         <v>0.43</v>
       </c>
       <c r="L2">
-        <v>99.83</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="M2">
         <v>0.43</v>
@@ -1095,22 +1095,22 @@
         <v>0.43</v>
       </c>
       <c r="H3">
-        <v>100.86</v>
+        <v>100.92</v>
       </c>
       <c r="I3">
         <v>0.43</v>
       </c>
       <c r="J3">
-        <v>100.86</v>
+        <v>100.92</v>
       </c>
       <c r="K3">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="L3">
-        <v>100.86</v>
+        <v>100.92</v>
       </c>
       <c r="M3">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -1148,13 +1148,13 @@
         <v>100.8</v>
       </c>
       <c r="K4">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="L4">
         <v>100.8</v>
       </c>
       <c r="M4">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -1183,22 +1183,22 @@
         <v>0.43</v>
       </c>
       <c r="H5">
-        <v>101.01</v>
+        <v>101.06</v>
       </c>
       <c r="I5">
         <v>0.43</v>
       </c>
       <c r="J5">
-        <v>101.01</v>
+        <v>101.06</v>
       </c>
       <c r="K5">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="L5">
-        <v>101.01</v>
+        <v>101.06</v>
       </c>
       <c r="M5">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -1227,22 +1227,22 @@
         <v>0.43</v>
       </c>
       <c r="H6">
-        <v>99.8</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="I6">
         <v>0.43</v>
       </c>
       <c r="J6">
-        <v>99.8</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="K6">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="L6">
-        <v>99.8</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="M6">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -1325,22 +1325,22 @@
         <v>86.45999999999999</v>
       </c>
       <c r="H2">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I2">
         <v>86.45999999999999</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="K2">
-        <v>85.2</v>
+        <v>105.36</v>
       </c>
       <c r="L2">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M2">
-        <v>85.2</v>
+        <v>105.36</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1378,13 +1378,13 @@
         <v>0.02</v>
       </c>
       <c r="K3">
-        <v>161.86</v>
+        <v>172.03</v>
       </c>
       <c r="L3">
         <v>0.02</v>
       </c>
       <c r="M3">
-        <v>161.86</v>
+        <v>172.03</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -1422,13 +1422,13 @@
         <v>0.03</v>
       </c>
       <c r="K4">
-        <v>105.94</v>
+        <v>127.5</v>
       </c>
       <c r="L4">
         <v>0.03</v>
       </c>
       <c r="M4">
-        <v>105.94</v>
+        <v>127.5</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -1457,22 +1457,22 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="K5">
-        <v>140.77</v>
+        <v>314.03</v>
       </c>
       <c r="L5">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="M5">
-        <v>140.77</v>
+        <v>314.03</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -1510,13 +1510,13 @@
         <v>0.01</v>
       </c>
       <c r="K6">
-        <v>269.69</v>
+        <v>431.72</v>
       </c>
       <c r="L6">
         <v>0.01</v>
       </c>
       <c r="M6">
-        <v>269.69</v>
+        <v>431.72</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -1599,22 +1599,22 @@
         <v>31.54</v>
       </c>
       <c r="H2">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="I2">
         <v>31.54</v>
       </c>
       <c r="J2">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="K2">
-        <v>32.29</v>
+        <v>30.95</v>
       </c>
       <c r="L2">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="M2">
-        <v>32.29</v>
+        <v>30.95</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1652,13 +1652,13 @@
         <v>0.36</v>
       </c>
       <c r="K3">
-        <v>24.34</v>
+        <v>22.76</v>
       </c>
       <c r="L3">
         <v>0.36</v>
       </c>
       <c r="M3">
-        <v>24.34</v>
+        <v>22.76</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -1687,22 +1687,22 @@
         <v>71.93000000000001</v>
       </c>
       <c r="H4">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="I4">
         <v>71.93000000000001</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K4">
-        <v>63.82</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="L4">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="M4">
-        <v>63.82</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -1731,22 +1731,22 @@
         <v>28</v>
       </c>
       <c r="H5">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I5">
         <v>28</v>
       </c>
       <c r="J5">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="K5">
-        <v>26.72</v>
+        <v>31.07</v>
       </c>
       <c r="L5">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="M5">
-        <v>26.72</v>
+        <v>31.07</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -1775,22 +1775,22 @@
         <v>29.89</v>
       </c>
       <c r="H6">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="I6">
         <v>29.89</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="K6">
-        <v>30.27</v>
+        <v>25.64</v>
       </c>
       <c r="L6">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="M6">
-        <v>30.27</v>
+        <v>25.64</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -1882,13 +1882,13 @@
         <v>0.14</v>
       </c>
       <c r="K2">
-        <v>29.27</v>
+        <v>30.38</v>
       </c>
       <c r="L2">
         <v>0.14</v>
       </c>
       <c r="M2">
-        <v>29.27</v>
+        <v>30.38</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -1926,13 +1926,13 @@
         <v>0.06</v>
       </c>
       <c r="K3">
-        <v>77.34</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="L3">
         <v>0.06</v>
       </c>
       <c r="M3">
-        <v>77.34</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -1970,13 +1970,13 @@
         <v>0.09</v>
       </c>
       <c r="K4">
-        <v>46.75</v>
+        <v>55.53</v>
       </c>
       <c r="L4">
         <v>0.09</v>
       </c>
       <c r="M4">
-        <v>46.75</v>
+        <v>55.53</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2014,13 +2014,13 @@
         <v>0.02</v>
       </c>
       <c r="K5">
-        <v>252.55</v>
+        <v>271.43</v>
       </c>
       <c r="L5">
         <v>0.02</v>
       </c>
       <c r="M5">
-        <v>252.55</v>
+        <v>271.43</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2058,13 +2058,13 @@
         <v>0.04</v>
       </c>
       <c r="K6">
-        <v>117.93</v>
+        <v>132.59</v>
       </c>
       <c r="L6">
         <v>0.04</v>
       </c>
       <c r="M6">
-        <v>117.93</v>
+        <v>132.59</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -2147,22 +2147,22 @@
         <v>64.37</v>
       </c>
       <c r="H2">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I2">
         <v>64.37</v>
       </c>
       <c r="J2">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="K2">
-        <v>117.97</v>
+        <v>109.16</v>
       </c>
       <c r="L2">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="M2">
-        <v>117.97</v>
+        <v>109.16</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -2191,22 +2191,22 @@
         <v>100.01</v>
       </c>
       <c r="H3">
-        <v>-1.25</v>
+        <v>-1.11</v>
       </c>
       <c r="I3">
         <v>100.01</v>
       </c>
       <c r="J3">
-        <v>-1.25</v>
+        <v>-1.11</v>
       </c>
       <c r="K3">
-        <v>183.91</v>
+        <v>174.79</v>
       </c>
       <c r="L3">
-        <v>-1.25</v>
+        <v>-1.11</v>
       </c>
       <c r="M3">
-        <v>183.91</v>
+        <v>174.79</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -2235,22 +2235,22 @@
         <v>46.75</v>
       </c>
       <c r="H4">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="I4">
         <v>46.75</v>
       </c>
       <c r="J4">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="K4">
-        <v>74.76000000000001</v>
+        <v>64.06</v>
       </c>
       <c r="L4">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>74.76000000000001</v>
+        <v>64.06</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2279,22 +2279,22 @@
         <v>35.44</v>
       </c>
       <c r="H5">
-        <v>3.58</v>
+        <v>3.91</v>
       </c>
       <c r="I5">
         <v>35.44</v>
       </c>
       <c r="J5">
-        <v>3.58</v>
+        <v>3.91</v>
       </c>
       <c r="K5">
-        <v>55.71</v>
+        <v>49.52</v>
       </c>
       <c r="L5">
-        <v>3.58</v>
+        <v>3.91</v>
       </c>
       <c r="M5">
-        <v>55.71</v>
+        <v>49.52</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2323,22 +2323,22 @@
         <v>62.1</v>
       </c>
       <c r="H6">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="I6">
         <v>62.1</v>
       </c>
       <c r="J6">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="K6">
-        <v>106.1</v>
+        <v>143.78</v>
       </c>
       <c r="L6">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="M6">
-        <v>106.1</v>
+        <v>143.78</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -2430,13 +2430,13 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>113.96</v>
+        <v>92.08</v>
       </c>
       <c r="L2">
         <v>0.01</v>
       </c>
       <c r="M2">
-        <v>113.96</v>
+        <v>92.08</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -2474,13 +2474,13 @@
         <v>-0.01</v>
       </c>
       <c r="K3">
-        <v>61.9</v>
+        <v>76.06</v>
       </c>
       <c r="L3">
         <v>-0.01</v>
       </c>
       <c r="M3">
-        <v>61.9</v>
+        <v>76.06</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -2518,13 +2518,13 @@
         <v>-0.01</v>
       </c>
       <c r="K4">
-        <v>64.2</v>
+        <v>68.2</v>
       </c>
       <c r="L4">
         <v>-0.01</v>
       </c>
       <c r="M4">
-        <v>64.2</v>
+        <v>68.2</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2553,22 +2553,22 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="K5">
-        <v>139.37</v>
+        <v>187.89</v>
       </c>
       <c r="L5">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M5">
-        <v>139.37</v>
+        <v>187.89</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2597,22 +2597,22 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="K6">
-        <v>137.15</v>
+        <v>219.24</v>
       </c>
       <c r="L6">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="M6">
-        <v>137.15</v>
+        <v>219.24</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -2683,10 +2683,10 @@
         <v>3.43</v>
       </c>
       <c r="D2">
-        <v>31.6</v>
+        <v>30.81</v>
       </c>
       <c r="E2">
-        <v>3.78</v>
+        <v>4.17</v>
       </c>
       <c r="F2">
         <v>26.71</v>
@@ -2695,22 +2695,22 @@
         <v>3.43</v>
       </c>
       <c r="H2">
-        <v>32.5</v>
+        <v>31.7</v>
       </c>
       <c r="I2">
-        <v>3.78</v>
+        <v>4.17</v>
       </c>
       <c r="J2">
-        <v>26.62</v>
+        <v>26.63</v>
       </c>
       <c r="K2">
-        <v>3.61</v>
+        <v>2.99</v>
       </c>
       <c r="L2">
-        <v>32.5</v>
+        <v>31.7</v>
       </c>
       <c r="M2">
-        <v>3.94</v>
+        <v>3.82</v>
       </c>
       <c r="N2" t="s">
         <v>13</v>
@@ -2727,10 +2727,10 @@
         <v>3.35</v>
       </c>
       <c r="D3">
-        <v>33.07</v>
+        <v>32.25</v>
       </c>
       <c r="E3">
-        <v>3.71</v>
+        <v>4.11</v>
       </c>
       <c r="F3">
         <v>27.82</v>
@@ -2739,22 +2739,22 @@
         <v>3.35</v>
       </c>
       <c r="H3">
-        <v>33.85</v>
+        <v>33.2</v>
       </c>
       <c r="I3">
-        <v>3.71</v>
+        <v>4.11</v>
       </c>
       <c r="J3">
-        <v>27.72</v>
+        <v>27.89</v>
       </c>
       <c r="K3">
-        <v>3.18</v>
+        <v>3.32</v>
       </c>
       <c r="L3">
-        <v>33.85</v>
+        <v>33.2</v>
       </c>
       <c r="M3">
-        <v>3.55</v>
+        <v>4.09</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -2771,10 +2771,10 @@
         <v>3.52</v>
       </c>
       <c r="D4">
-        <v>30.46</v>
+        <v>29.7</v>
       </c>
       <c r="E4">
-        <v>3.86</v>
+        <v>4.25</v>
       </c>
       <c r="F4">
         <v>25.72</v>
@@ -2783,22 +2783,22 @@
         <v>3.52</v>
       </c>
       <c r="H4">
-        <v>31.37</v>
+        <v>30.63</v>
       </c>
       <c r="I4">
-        <v>3.86</v>
+        <v>4.25</v>
       </c>
       <c r="J4">
-        <v>25.69</v>
+        <v>25.73</v>
       </c>
       <c r="K4">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="L4">
-        <v>31.37</v>
+        <v>30.63</v>
       </c>
       <c r="M4">
-        <v>3.77</v>
+        <v>4.22</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
@@ -2815,10 +2815,10 @@
         <v>3.59</v>
       </c>
       <c r="D5">
-        <v>29.46</v>
+        <v>28.73</v>
       </c>
       <c r="E5">
-        <v>3.92</v>
+        <v>4.31</v>
       </c>
       <c r="F5">
         <v>24.9</v>
@@ -2827,22 +2827,22 @@
         <v>3.59</v>
       </c>
       <c r="H5">
-        <v>30.47</v>
+        <v>29.55</v>
       </c>
       <c r="I5">
-        <v>3.92</v>
+        <v>4.31</v>
       </c>
       <c r="J5">
-        <v>24.95</v>
+        <v>24.82</v>
       </c>
       <c r="K5">
-        <v>3.68</v>
+        <v>3.38</v>
       </c>
       <c r="L5">
-        <v>30.47</v>
+        <v>29.55</v>
       </c>
       <c r="M5">
-        <v>4.01</v>
+        <v>4.13</v>
       </c>
       <c r="N5" t="s">
         <v>16</v>
@@ -2859,10 +2859,10 @@
         <v>3.54</v>
       </c>
       <c r="D6">
-        <v>29.96</v>
+        <v>29.21</v>
       </c>
       <c r="E6">
-        <v>3.88</v>
+        <v>4.26</v>
       </c>
       <c r="F6">
         <v>25.26</v>
@@ -2871,22 +2871,22 @@
         <v>3.54</v>
       </c>
       <c r="H6">
-        <v>30.71</v>
+        <v>29.94</v>
       </c>
       <c r="I6">
-        <v>3.88</v>
+        <v>4.26</v>
       </c>
       <c r="J6">
         <v>25.15</v>
       </c>
       <c r="K6">
-        <v>3.45</v>
+        <v>3.61</v>
       </c>
       <c r="L6">
-        <v>30.71</v>
+        <v>29.94</v>
       </c>
       <c r="M6">
-        <v>3.8</v>
+        <v>4.32</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
